--- a/src/test/java/excelFiles/task.xlsx
+++ b/src/test/java/excelFiles/task.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JuNiOr\IdeaProjects\CucumberTeach\src\test\java\excelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{384E095A-5FE8-4D6E-B8FE-B75B5E81CB1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26054739-9249-4A0B-8011-BB8167D28A5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-24120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>FirstName</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>lizard32@gmail.com</t>
+  </si>
+  <si>
+    <t>qwe</t>
   </si>
 </sst>
 </file>
@@ -404,10 +407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -416,7 +419,7 @@
     <col min="2" max="2" width="18.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -424,7 +427,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -432,7 +435,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -440,7 +443,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -448,7 +451,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -456,7 +459,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -464,7 +467,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -472,15 +475,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C8">
+        <v>123</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>15</v>
       </c>
